--- a/StructureDefinition-ext-R5-Organization.qualification.xlsx
+++ b/StructureDefinition-ext-R5-Organization.qualification.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Organization.qualification` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Organization.qualification` is mapped to FHIR R4 structure `Organization`, but has no target element specified.</t>
+Element `Organization.qualification` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Organization</t>
   </si>
   <si>
     <t>ID</t>
@@ -341,7 +341,7 @@
   </si>
   <si>
     <t>Often, specific identities are assigned for the qualification by the assigning organization. Element `Organization.qualification.identifier` is part of an existing definition because parent element `Organization.qualification` requires a cross-version extension.
-Element `Organization.qualification.identifier` is mapped to FHIR R4 structure `Organization`, but has no target element specified.</t>
+Element `Organization.qualification.identifier` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Extension.extension:identifier.id</t>
@@ -424,7 +424,7 @@
   </si>
   <si>
     <t>Element `Organization.qualification.code` is part of an existing definition because parent element `Organization.qualification` requires a cross-version extension.
-Element `Organization.qualification.code` is mapped to FHIR R4 structure `Organization`, but has no target element specified.</t>
+Element `Organization.qualification.code` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -456,7 +456,7 @@
   </si>
   <si>
     <t>Qualifications are often for a limited period of time, and can be revoked. Element `Organization.qualification.period` is part of an existing definition because parent element `Organization.qualification` requires a cross-version extension.
-Element `Organization.qualification.period` is mapped to FHIR R4 structure `Organization`, but has no target element specified.</t>
+Element `Organization.qualification.period` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -488,7 +488,8 @@
   </si>
   <si>
     <t>Element `Organization.qualification.issuer` is part of an existing definition because parent element `Organization.qualification` requires a cross-version extension.
-Element `Organization.qualification.issuer` is mapped to FHIR R4 structure `Organization`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Organization.qualification.issuer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Organization.qualification.issuer` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Extension.extension:issuer.id</t>

--- a/StructureDefinition-ext-R5-Organization.qualification.xlsx
+++ b/StructureDefinition-ext-R5-Organization.qualification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Organization.qualification` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Organization.qualification` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
+Element `Organization.qualification` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -341,7 +341,7 @@
   </si>
   <si>
     <t>Often, specific identities are assigned for the qualification by the assigning organization. Element `Organization.qualification.identifier` is part of an existing definition because parent element `Organization.qualification` requires a cross-version extension.
-Element `Organization.qualification.identifier` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
+Element `Organization.qualification.identifier` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Extension.extension:identifier.id</t>
@@ -388,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification.identifier</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -424,7 +427,7 @@
   </si>
   <si>
     <t>Element `Organization.qualification.code` is part of an existing definition because parent element `Organization.qualification` requires a cross-version extension.
-Element `Organization.qualification.code` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
+Element `Organization.qualification.code` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -434,6 +437,9 @@
   </si>
   <si>
     <t>Extension.extension:code.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification.code</t>
   </si>
   <si>
     <t>Extension.extension:code.value[x]</t>
@@ -456,7 +462,7 @@
   </si>
   <si>
     <t>Qualifications are often for a limited period of time, and can be revoked. Element `Organization.qualification.period` is part of an existing definition because parent element `Organization.qualification` requires a cross-version extension.
-Element `Organization.qualification.period` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
+Element `Organization.qualification.period` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -466,6 +472,9 @@
   </si>
   <si>
     <t>Extension.extension:period.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification.period</t>
   </si>
   <si>
     <t>Extension.extension:period.value[x]</t>
@@ -489,7 +498,7 @@
   <si>
     <t>Element `Organization.qualification.issuer` is part of an existing definition because parent element `Organization.qualification` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Organization.qualification.issuer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Organization.qualification.issuer` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
+Element `Organization.qualification.issuer` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Extension.extension:issuer.id</t>
@@ -499,6 +508,9 @@
   </si>
   <si>
     <t>Extension.extension:issuer.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification.issuer</t>
   </si>
   <si>
     <t>Extension.extension:issuer.value[x]</t>
@@ -1661,7 +1673,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1703,7 +1715,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1718,15 +1730,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1749,7 +1761,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1806,7 +1818,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1818,21 +1830,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1857,14 +1869,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1933,7 +1945,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2036,7 +2048,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2141,7 +2153,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2184,7 +2196,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2226,7 +2238,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2241,15 +2253,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2272,13 +2284,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2329,7 +2341,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2341,21 +2353,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2380,14 +2392,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2456,7 +2468,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2559,7 +2571,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2664,7 +2676,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2707,7 +2719,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2749,7 +2761,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2764,15 +2776,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2795,13 +2807,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2852,7 +2864,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2864,21 +2876,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2903,14 +2915,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2979,7 +2991,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3082,7 +3094,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3187,7 +3199,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3230,7 +3242,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3272,7 +3284,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3287,15 +3299,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3318,13 +3330,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3375,7 +3387,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3387,18 +3399,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3480,7 +3492,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
@@ -3495,15 +3507,15 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3526,13 +3538,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3583,7 +3595,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3595,10 +3607,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Organization.qualification.xlsx
+++ b/StructureDefinition-ext-R5-Organization.qualification.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -516,7 +516,7 @@
     <t>Extension.extension:issuer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-Organization.qualification.xlsx
+++ b/StructureDefinition-ext-R5-Organization.qualification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="158">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,8 +340,7 @@
     <t>An identifier allocated to this qualification for this organization.</t>
   </si>
   <si>
-    <t>Often, specific identities are assigned for the qualification by the assigning organization. Element `Organization.qualification.identifier` is part of an existing definition because parent element `Organization.qualification` requires a cross-version extension.
-Element `Organization.qualification.identifier` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
+    <t>Often, specific identities are assigned for the qualification by the assigning organization. Element `Organization.qualification.identifier` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Extension.extension:identifier.id</t>
@@ -388,9 +387,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification.identifier</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -426,8 +422,7 @@
     <t>Coded representation of the qualification.</t>
   </si>
   <si>
-    <t>Element `Organization.qualification.code` is part of an existing definition because parent element `Organization.qualification` requires a cross-version extension.
-Element `Organization.qualification.code` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
+    <t>Element `Organization.qualification.code` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -437,9 +432,6 @@
   </si>
   <si>
     <t>Extension.extension:code.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification.code</t>
   </si>
   <si>
     <t>Extension.extension:code.value[x]</t>
@@ -461,8 +453,7 @@
     <t>Period during which the qualification is valid.</t>
   </si>
   <si>
-    <t>Qualifications are often for a limited period of time, and can be revoked. Element `Organization.qualification.period` is part of an existing definition because parent element `Organization.qualification` requires a cross-version extension.
-Element `Organization.qualification.period` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
+    <t>Qualifications are often for a limited period of time, and can be revoked. Element `Organization.qualification.period` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -472,9 +463,6 @@
   </si>
   <si>
     <t>Extension.extension:period.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification.period</t>
   </si>
   <si>
     <t>Extension.extension:period.value[x]</t>
@@ -496,8 +484,7 @@
     <t>Organization that regulates and issues the qualification.</t>
   </si>
   <si>
-    <t>Element `Organization.qualification.issuer` is part of an existing definition because parent element `Organization.qualification` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Organization.qualification.issuer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Organization.qualification.issuer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Organization.qualification.issuer` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
@@ -510,13 +497,10 @@
     <t>Extension.extension:issuer.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification.issuer</t>
-  </si>
-  <si>
     <t>Extension.extension:issuer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -867,7 +851,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="203.828125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="202.7265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1673,72 +1657,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1761,7 +1745,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1818,33 +1802,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1869,14 +1853,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1945,7 +1929,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2048,7 +2032,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2153,7 +2137,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2196,7 +2180,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2238,30 +2222,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2284,13 +2268,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2341,33 +2325,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2392,14 +2376,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2468,7 +2452,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2571,7 +2555,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2676,7 +2660,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2719,7 +2703,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2761,30 +2745,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2807,13 +2791,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2864,33 +2848,33 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2915,14 +2899,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2991,7 +2975,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3094,7 +3078,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3199,7 +3183,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3242,7 +3226,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3284,30 +3268,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3330,13 +3314,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3387,30 +3371,30 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3492,30 +3476,30 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3538,13 +3522,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3595,22 +3579,22 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
